--- a/projectX設計書.xlsx
+++ b/projectX設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318A8907-A2DE-4832-9C91-3ABD5429889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B6586-D24B-4363-A711-306FF428D037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{EECE3B6A-881C-4C2E-B180-DB7CDF5F99D0}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>ProjectX設計書</t>
     <rPh sb="8" eb="11">
@@ -58,30 +58,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>userid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>logout-success.jsp</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -91,6 +75,257 @@
   </si>
   <si>
     <t>userId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースアクセス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト成功画面</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー情報保持</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UserBean.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>login-failure.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>userdao</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名:daoの呼び出し</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名:Beanの呼び出し</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>userbean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URLマッピング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>login-servlet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名:フォワード処理</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除機能</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク削除処理</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskDeleteServlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task-delete-confirm.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク削除確認画面</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク削除完了画面</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク削除エラー画面</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task-delete-result.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task-delete-failure.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskDAO.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>item-delete-servlet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>taskId</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>taskdao</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -187,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +436,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +767,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -546,92 +790,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9AB8E9-E8CB-4EAE-8A9A-D50FDD03C9BC}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="6" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/projectX設計書.xlsx
+++ b/projectX設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B6586-D24B-4363-A711-306FF428D037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852D0D02-C3FD-419B-B4CA-A27EA7ECF701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{EECE3B6A-881C-4C2E-B180-DB7CDF5F99D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EECE3B6A-881C-4C2E-B180-DB7CDF5F99D0}"/>
   </bookViews>
   <sheets>
     <sheet name="使い方" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>ProjectX設計書</t>
     <rPh sb="8" eb="11">
@@ -326,6 +326,255 @@
   </si>
   <si>
     <t>count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト演習
+タスク編集機能</t>
+    <rPh sb="6" eb="8">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配置場所</t>
+    <rPh sb="0" eb="4">
+      <t>ハイチバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WebApp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task-edit.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク詳細画面を表示し、表示されたタスク詳細画面にて変更を行う</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク名:テキストボックス(50)
+カテゴリーID:セレクトタブ(カテゴリーIDを元にカテゴリー名を表示)
+期限:date(date型で取得する)
+ 担当者:ユーザー名(ユーザーIDを元にユーザー名を表示:24文字)
+ステータス情報:セレクトタブ(ステータスコードを元にステータス名を表示)
+メモ:テキストボックス(100)</t>
+    <rPh sb="41" eb="42">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task-edit-result.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク編集が成功した場合、タスク編集結果を表示してメニュー画面へ遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ヘンシュウケッカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task-edit-failure.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク編集が失敗した場合、失敗画面を表示し、一覧画面へ</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シッパイガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskDetailServlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧表示画面で選択したタスクの情報を保持し、表示する</t>
+    <rPh sb="0" eb="6">
+      <t>イチランヒョウジガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskEditServlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力された変更点を使用し、DBで変更を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model.DAO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskCategoryUserStatusDAO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model.entity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskCategoryUserStatusBean</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -384,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -407,6 +656,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -422,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,11 +807,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -468,9 +876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,7 +916,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -614,7 +1022,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,7 +1164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -792,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9AB8E9-E8CB-4EAE-8A9A-D50FDD03C9BC}">
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -948,10 +1356,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
@@ -960,7 +1365,6 @@
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
@@ -969,7 +1373,6 @@
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
@@ -978,7 +1381,6 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
@@ -987,7 +1389,6 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
@@ -996,7 +1397,6 @@
       <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
@@ -1160,12 +1560,374 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887DF8F7-CBB6-4199-AE17-5F27B93AB4D1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L7:S12"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projectX設計書.xlsx
+++ b/projectX設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852D0D02-C3FD-419B-B4CA-A27EA7ECF701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00673E5-89C4-493B-AC97-763F69214AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EECE3B6A-881C-4C2E-B180-DB7CDF5F99D0}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
   <si>
     <t>ProjectX設計書</t>
     <rPh sb="8" eb="11">
@@ -577,12 +577,294 @@
     <t>TaskCategoryUserStatusBean</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>一覧表示画面で選択したタスクを保持し、表示を行う
+入力された変更点を元にDBに変更を行う</t>
+    <rPh sb="0" eb="6">
+      <t>イチランヒョウジガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskCategoryUserStatusDAOで使用する雛型</t>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒナガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面設計書</t>
+  </si>
+  <si>
+    <t>システム名</t>
+  </si>
+  <si>
+    <t>グループ名</t>
+  </si>
+  <si>
+    <t>作成日</t>
+  </si>
+  <si>
+    <t>担当</t>
+  </si>
+  <si>
+    <t>承認印</t>
+  </si>
+  <si>
+    <t>タスク変更画面</t>
+    <rPh sb="3" eb="7">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ProjectX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面名称</t>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+  </si>
+  <si>
+    <t>フォーム定義</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>/TaskEditServlet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>識別ID</t>
+  </si>
+  <si>
+    <t>ラベル</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>タスク名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>textbox</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>taskname</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※1参考</t>
+    <rPh sb="2" eb="4">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50文字の制限をかける</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリーID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>categoryid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリーIDを参照し、カテゴリー名を表示する</t>
+    <rPh sb="8" eb="10">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>calender</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>limitdate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダーの仕様を調べておく</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>repname</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者名を検索し、ユーザIDを取得</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータス情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>statuscd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスコードを参照し、ステータス名を表示する</t>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100文字の制限をかける</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※1　詳細画面で表示した値を設定する</t>
+    <rPh sb="3" eb="7">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +888,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,8 +933,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -773,8 +1086,456 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,8 +1548,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +1571,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,9 +1590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,35 +1603,189 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - アクセント 1" xfId="1" builtinId="30"/>
     <cellStyle name="40% - アクセント 1" xfId="2" builtinId="31"/>
     <cellStyle name="60% - アクセント 1" xfId="3" builtinId="32"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{36B7A0FA-0E6D-4DF4-B4D7-21A5E61BBF80}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -873,6 +1798,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579892</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641748</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C5D585-FD6C-41D7-AC29-C92D319923AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1951492" y="6848475"/>
+          <a:ext cx="5548256" cy="1924049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,14 +2157,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1200,11 +2179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9AB8E9-E8CB-4EAE-8A9A-D50FDD03C9BC}">
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.75" customWidth="1"/>
@@ -1213,7 +2192,7 @@
     <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +2212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +2232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +2250,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +2268,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +2286,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1319,7 +2298,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +2310,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7">
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1343,7 +2322,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1355,10 +2334,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1366,7 +2345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +2353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1382,7 +2361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1390,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +2377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +2385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +2393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +2401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +2409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +2417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7">
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1458,7 +2437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7">
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +2457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7">
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1498,7 +2477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7">
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +2495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7">
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
@@ -1528,7 +2507,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7">
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1540,7 +2519,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7">
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
@@ -1560,353 +2539,890 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887DF8F7-CBB6-4199-AE17-5F27B93AB4D1}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C5" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C6" s="9" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="9" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="17"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="19" t="s">
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="9" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C15" s="9" t="s">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C17" s="9" t="s">
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="16"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="21" spans="3:19" ht="19.5" thickBot="1"/>
+    <row r="22" spans="3:19">
+      <c r="C22" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="3:19" ht="19.5" thickBot="1">
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="C26" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="44"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="C27" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
+    </row>
+    <row r="30" spans="3:19">
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="53"/>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="53"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53"/>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="53"/>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="53"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="53"/>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="53"/>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="47"/>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J47" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47" s="46"/>
+      <c r="L47" s="47"/>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J48" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" s="66"/>
+      <c r="L48" s="67"/>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J49" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49" s="46"/>
+      <c r="L49" s="47"/>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="I50" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" s="66"/>
+      <c r="L50" s="67"/>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J51" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="66"/>
+      <c r="L51" s="67"/>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="64"/>
+      <c r="J52" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52" s="46"/>
+      <c r="L52" s="47"/>
+    </row>
+    <row r="53" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" s="74"/>
+      <c r="L53" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:S17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:S18"/>
+  <mergeCells count="54">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L43"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:S5"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:S13"/>
     <mergeCell ref="I14:K14"/>
@@ -1917,19 +3433,22 @@
     <mergeCell ref="L15:S15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="L16:S16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:S5"/>
     <mergeCell ref="C6:E14"/>
     <mergeCell ref="F6:H14"/>
     <mergeCell ref="I6:K12"/>
     <mergeCell ref="L6:S6"/>
     <mergeCell ref="L7:S12"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="L17:S18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1939,7 +3458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,7 +3471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projectX設計書.xlsx
+++ b/projectX設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00673E5-89C4-493B-AC97-763F69214AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E190965-677E-45A5-B45C-5B5E7A62FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EECE3B6A-881C-4C2E-B180-DB7CDF5F99D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{EECE3B6A-881C-4C2E-B180-DB7CDF5F99D0}"/>
   </bookViews>
   <sheets>
     <sheet name="使い方" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="150">
   <si>
     <t>ProjectX設計書</t>
     <rPh sb="8" eb="11">
@@ -858,6 +858,241 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト演習
+タスク登録機能仕様ファイル一覧</t>
+    <rPh sb="6" eb="8">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>webapp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>task-register.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク情報を入力する登録フォーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【登録項目】
+①タスク名
+②カテゴリ情報
+③期限
+④担当者情報
+⑤ステータス情報
+⑥メモ</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register-success.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク情報登録の完了を表示する画面</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register-failure.jsp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク情報登録の失敗を表示する画面</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Servletパッケージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskAddServlet.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク情報登録を行うコントロールクラス</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model.dao</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskCategoryDAO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスクテーブルにアクセスするDAOクラス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaskCategoryBean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク情報を保持するEntityクラス</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク登録画面</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ProjectX</t>
+  </si>
+  <si>
+    <t>篠</t>
+    <rPh sb="0" eb="1">
+      <t>シノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/TaskEditServlet</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>taskname</t>
+  </si>
+  <si>
+    <t>カテゴリーID</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>categoryid</t>
+  </si>
+  <si>
+    <t>calender</t>
+  </si>
+  <si>
+    <t>limitdate</t>
+  </si>
+  <si>
+    <t>repname</t>
+  </si>
+  <si>
+    <t>statuscd</t>
+  </si>
+  <si>
+    <t>メモ</t>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>memo</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1785,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1572,6 +1807,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,12 +1984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,168 +2010,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1854,10 +2086,59 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FDEA1F-D268-4F96-AE4F-1C9C7F1AD0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2984501" y="5803900"/>
+          <a:ext cx="3733800" cy="3499493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1895,7 +2176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2001,7 +2282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2143,7 +2424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2157,7 +2438,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2183,13 +2464,13 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="6" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -2541,888 +2822,863 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887DF8F7-CBB6-4199-AE17-5F27B93AB4D1}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C22" sqref="C22:L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="7" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="21" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="68"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="17"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="70"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="17"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="70"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="17"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="70"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="17"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="70"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="20"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="73"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="7" t="s">
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="13" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="21" t="s">
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="68"/>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="16"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="20"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="73"/>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="7" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="21" spans="3:19" ht="19.5" thickBot="1"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+    </row>
+    <row r="21" spans="3:19" ht="18.5" thickBot="1"/>
     <row r="22" spans="3:19">
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26" t="s">
+      <c r="G22" s="47"/>
+      <c r="H22" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28" t="s">
+      <c r="I22" s="47"/>
+      <c r="J22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="3:19">
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="34" t="s">
+      <c r="G23" s="58"/>
+      <c r="H23" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="3:19">
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="3:19" ht="19.5" thickBot="1">
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="44"/>
+    </row>
+    <row r="25" spans="3:19" ht="18.5" thickBot="1">
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="44"/>
     </row>
     <row r="26" spans="3:19">
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="43" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="44"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="3:19">
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
     </row>
     <row r="30" spans="3:19">
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="3:19">
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
     </row>
     <row r="33" spans="3:12">
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" spans="3:12">
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" spans="3:12">
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
     </row>
     <row r="36" spans="3:12">
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="53"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
     </row>
     <row r="37" spans="3:12">
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
     </row>
     <row r="38" spans="3:12">
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
     </row>
     <row r="39" spans="3:12">
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
     </row>
     <row r="40" spans="3:12">
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="53"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
     </row>
     <row r="41" spans="3:12">
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="37"/>
     </row>
     <row r="42" spans="3:12">
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="53"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
     </row>
     <row r="43" spans="3:12">
-      <c r="C43" s="54"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="56"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="40"/>
     </row>
     <row r="44" spans="3:12">
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" spans="3:12">
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="59" t="s">
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="L45" s="60" t="s">
+      <c r="L45" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="46" spans="3:12">
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="59" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="59" t="s">
+      <c r="I46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J46" s="61" t="s">
+      <c r="J46" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" spans="3:12">
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H47" s="64" t="s">
+      <c r="H47" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="64" t="s">
+      <c r="I47" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J47" s="58" t="s">
+      <c r="J47" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="46"/>
-      <c r="L47" s="47"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" spans="3:12">
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H48" s="64" t="s">
+      <c r="H48" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="64" t="s">
+      <c r="I48" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J48" s="65" t="s">
+      <c r="J48" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="K48" s="66"/>
-      <c r="L48" s="67"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="64" t="s">
+      <c r="H49" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I49" s="64" t="s">
+      <c r="I49" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J49" s="58" t="s">
+      <c r="J49" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="K49" s="46"/>
-      <c r="L49" s="47"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H50" s="64" t="s">
+      <c r="H50" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I50" s="64" t="s">
+      <c r="I50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J50" s="65" t="s">
+      <c r="J50" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="K50" s="66"/>
-      <c r="L50" s="67"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H51" s="64" t="s">
+      <c r="H51" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I51" s="64" t="s">
+      <c r="I51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J51" s="65" t="s">
+      <c r="J51" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="K51" s="66"/>
-      <c r="L51" s="67"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="11"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63" t="s">
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H52" s="64" t="s">
+      <c r="H52" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="I52" s="64"/>
-      <c r="J52" s="58" t="s">
+      <c r="I52" s="15"/>
+      <c r="J52" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
-    </row>
-    <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="73" t="s">
+      <c r="K52" s="26"/>
+      <c r="L52" s="29"/>
+    </row>
+    <row r="53" spans="3:12" ht="18.5" thickBot="1">
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="K53" s="74"/>
-      <c r="L53" s="75"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L43"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="L17:S18"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:S13"/>
     <mergeCell ref="I14:K14"/>
@@ -3438,13 +3694,38 @@
     <mergeCell ref="I6:K12"/>
     <mergeCell ref="L6:S6"/>
     <mergeCell ref="L7:S12"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L43"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="J52:L52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3454,14 +3735,883 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD867A9D-DACE-40B6-A6CD-324CE635B48A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="C6" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="68"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="70"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="70"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="70"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="70"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="73"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="73"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+    </row>
+    <row r="19" spans="3:19" ht="18.5" thickBot="1"/>
+    <row r="20" spans="3:19">
+      <c r="C20" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="58"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="43"/>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="44"/>
+    </row>
+    <row r="23" spans="3:19" ht="18.5" thickBot="1">
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="44"/>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="C24" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="C25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+    </row>
+    <row r="30" spans="3:19">
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="40"/>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" s="26"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="26"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" s="26"/>
+      <c r="L47" s="29"/>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50" s="26"/>
+      <c r="L50" s="29"/>
+    </row>
+    <row r="51" spans="3:12" ht="18.5" thickBot="1">
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="C42:L42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L41"/>
+    <mergeCell ref="C20:E23"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F21:G23"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:S17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="L15:S16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L7:S12"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3471,7 +4621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
